--- a/src/test/java/apachePOI/resource/MultiplicationTable.xlsx
+++ b/src/test/java/apachePOI/resource/MultiplicationTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14010"/>
+    <workbookView windowWidth="28800" windowHeight="14010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>=</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
 </sst>
 </file>
@@ -963,7 +957,7 @@
   <sheetPr/>
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2678,175 +2672,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A6:I18"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
